--- a/output/Pack_Excel_Pro/Modulo_4_Dashboard/10_Dashboard_Final_Integrado.xlsx
+++ b/output/Pack_Excel_Pro/Modulo_4_Dashboard/10_Dashboard_Final_Integrado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/654ae566f54d6493/Escritorio/curso_excel/output/Pack_Excel_Pro/Modulo_4_Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isca/Code/projects/excel-course-for-accountants/output/Pack_Excel_Pro/Modulo_4_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7FBB3FD9A6A6E303F9BA6DBD72CADEA3CA72F32E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2FE94B0-2E13-4786-8445-48C332327452}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0538732-6F3F-C044-A0E9-1C7F2DB9BB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Nomina" sheetId="1" r:id="rId1"/>
@@ -434,52 +434,61 @@
       <sz val="14"/>
       <color rgb="FF2563EB"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF475569"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1E293B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF1E293B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFEF4444"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFF59E0B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF10B981"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -592,8 +601,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -605,35 +643,6 @@
     <xf numFmtId="4" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -971,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -985,7 +994,7 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -997,12 +1006,12 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>17967.48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>17976.46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>18312.310000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>17581.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>17698.13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>18062.509999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>18019.61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>18238.400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>18011.169999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>18187.43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>18223.669999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>18207.189999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>10852.86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>11092.26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>10770.23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>11221.81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>10987.01</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>11220.54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>11137.65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>11133.95</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>10833.86</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>10860.27</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>11320.86</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1661,7 @@
         <v>11290.42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>33057.019999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>32196.1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>31421.62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>31889.35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>32273.79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>31803.84</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>32096.66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>32838.839999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>32533.31</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>32309.16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>31330.26</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>26</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>32545.51</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -1990,7 +1999,7 @@
         <v>17676.43</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>17654.12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>17832.04</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>17748.990000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2103,7 @@
         <v>17385.419999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>28</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>17756.509999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>17988.54</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>28</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>17845.8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>17741.93</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>28</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>18147.099999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>28</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>17520.759999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>28</v>
       </c>
@@ -2276,7 +2285,7 @@
         <v>17674.29</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>12121.93</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>30</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>12147.85</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>30</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>11818.83</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>11951.84</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>30</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>11888.04</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>30</v>
       </c>
@@ -2432,7 +2441,7 @@
         <v>11834.53</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>30</v>
       </c>
@@ -2458,7 +2467,7 @@
         <v>12272.53</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>30</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>12394.19</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>30</v>
       </c>
@@ -2510,7 +2519,7 @@
         <v>11870.39</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>30</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>12217.52</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>30</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>12115.82</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>30</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>12123.89</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>32</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>35406.410000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>32</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>34908.449999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>32</v>
       </c>
@@ -2666,7 +2675,7 @@
         <v>34582.160000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>32</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>34606.379999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>32</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>35490.050000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>32</v>
       </c>
@@ -2744,7 +2753,7 @@
         <v>35600.99</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>32</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>34752.79</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>32</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>34779.99</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>32</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>34991.199999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>32</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>34295.64</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>35240.99</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>32</v>
       </c>
@@ -2900,7 +2909,7 @@
         <v>34668.79</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>34</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>14975.27</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>34</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>14612.86</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
@@ -2978,7 +2987,7 @@
         <v>14501.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>34</v>
       </c>
@@ -3004,7 +3013,7 @@
         <v>14481.16</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>34</v>
       </c>
@@ -3030,7 +3039,7 @@
         <v>14291.74</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>34</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>14791.56</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>34</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>14744.7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
@@ -3108,7 +3117,7 @@
         <v>14633.06</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>34</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>14684.97</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>34</v>
       </c>
@@ -3160,7 +3169,7 @@
         <v>14658.19</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>34</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>15005.02</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>34</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>14474</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>36</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>22276.19</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>36</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>22661.15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>36</v>
       </c>
@@ -3290,7 +3299,7 @@
         <v>22638.880000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>36</v>
       </c>
@@ -3316,7 +3325,7 @@
         <v>22333.119999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>36</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>22760.27</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +3377,7 @@
         <v>22667.54</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>36</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>22038.29</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>36</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>22771.95</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>36</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>21771.45</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>36</v>
       </c>
@@ -3472,7 +3481,7 @@
         <v>22493.87</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>36</v>
       </c>
@@ -3498,7 +3507,7 @@
         <v>22610.92</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>36</v>
       </c>
@@ -3524,7 +3533,7 @@
         <v>22280.97</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>38</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>16058.17</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>38</v>
       </c>
@@ -3576,7 +3585,7 @@
         <v>16059.83</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>38</v>
       </c>
@@ -3602,7 +3611,7 @@
         <v>15956.59</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>38</v>
       </c>
@@ -3628,7 +3637,7 @@
         <v>15656.1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>38</v>
       </c>
@@ -3654,7 +3663,7 @@
         <v>15312.98</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>38</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>15480.2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>38</v>
       </c>
@@ -3706,7 +3715,7 @@
         <v>15672.05</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>38</v>
       </c>
@@ -3732,7 +3741,7 @@
         <v>15339.75</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>38</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>15878.1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>38</v>
       </c>
@@ -3784,7 +3793,7 @@
         <v>15599.99</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>38</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>15631.5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>38</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>15271.41</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>40</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>28571.200000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>40</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>29119.47</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>40</v>
       </c>
@@ -3914,7 +3923,7 @@
         <v>27778.43</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>40</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>28905.24</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>40</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>28040.97</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>28635.62</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>40</v>
       </c>
@@ -4018,7 +4027,7 @@
         <v>28840.35</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>40</v>
       </c>
@@ -4044,7 +4053,7 @@
         <v>29156.91</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>40</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>28711.14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>40</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>28658.47</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>40</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>27892.66</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +4157,7 @@
         <v>28145.49</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>42</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>10484.98</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>42</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>10592.85</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>42</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>10319.040000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>42</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>10455.64</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>42</v>
       </c>
@@ -4278,7 +4287,7 @@
         <v>10105.51</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>42</v>
       </c>
@@ -4304,7 +4313,7 @@
         <v>10158.17</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>42</v>
       </c>
@@ -4330,7 +4339,7 @@
         <v>10376.41</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>42</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>10597.83</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>42</v>
       </c>
@@ -4382,7 +4391,7 @@
         <v>10548.63</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>42</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>10326.65</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>42</v>
       </c>
@@ -4434,7 +4443,7 @@
         <v>10075.36</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>42</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>10424.61</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>44</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>28391.59</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>44</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>28597.32</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>44</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>27645.07</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>44</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>27810.86</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>44</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>28429.99</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>44</v>
       </c>
@@ -4616,7 +4625,7 @@
         <v>27979.72</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>44</v>
       </c>
@@ -4642,7 +4651,7 @@
         <v>27474.15</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>44</v>
       </c>
@@ -4668,7 +4677,7 @@
         <v>27188.69</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>44</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>27332.55</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>44</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>28554.720000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>44</v>
       </c>
@@ -4746,7 +4755,7 @@
         <v>27246.93</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>44</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>27709.200000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>46</v>
       </c>
@@ -4798,7 +4807,7 @@
         <v>17173.53</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>46</v>
       </c>
@@ -4824,7 +4833,7 @@
         <v>16502.28</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>46</v>
       </c>
@@ -4850,7 +4859,7 @@
         <v>16939.64</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>46</v>
       </c>
@@ -4876,7 +4885,7 @@
         <v>16774.82</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>46</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>16753.080000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>46</v>
       </c>
@@ -4928,7 +4937,7 @@
         <v>16773.27</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>46</v>
       </c>
@@ -4954,7 +4963,7 @@
         <v>16588.55</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>46</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>17335.3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>46</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>16994.900000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>46</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>17205.490000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>46</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>16617.900000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>46</v>
       </c>
@@ -5084,7 +5093,7 @@
         <v>16947.97</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>48</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>26179.34</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>48</v>
       </c>
@@ -5136,7 +5145,7 @@
         <v>26564.69</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>48</v>
       </c>
@@ -5162,7 +5171,7 @@
         <v>26682.85</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>48</v>
       </c>
@@ -5188,7 +5197,7 @@
         <v>25786.47</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>48</v>
       </c>
@@ -5214,7 +5223,7 @@
         <v>26271.68</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>48</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>25971.91</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>48</v>
       </c>
@@ -5266,7 +5275,7 @@
         <v>27040.45</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>48</v>
       </c>
@@ -5292,7 +5301,7 @@
         <v>25750.74</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>48</v>
       </c>
@@ -5318,7 +5327,7 @@
         <v>26486</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>48</v>
       </c>
@@ -5344,7 +5353,7 @@
         <v>26919.06</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>48</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>26349.200000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>48</v>
       </c>
@@ -5396,7 +5405,7 @@
         <v>26795.02</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>50</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>10199.35</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>50</v>
       </c>
@@ -5448,7 +5457,7 @@
         <v>10296.64</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>50</v>
       </c>
@@ -5474,7 +5483,7 @@
         <v>9860.1299999999992</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>50</v>
       </c>
@@ -5500,7 +5509,7 @@
         <v>10093.81</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>50</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>10242.76</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>50</v>
       </c>
@@ -5552,7 +5561,7 @@
         <v>10086.18</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>50</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v>10342.56</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>50</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>9878.35</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>50</v>
       </c>
@@ -5630,7 +5639,7 @@
         <v>10277.15</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>50</v>
       </c>
@@ -5656,7 +5665,7 @@
         <v>10012.200000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>50</v>
       </c>
@@ -5682,7 +5691,7 @@
         <v>10032.84</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>50</v>
       </c>
@@ -5708,7 +5717,7 @@
         <v>10026.27</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>52</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>21222.36</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>52</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>21268.32</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>52</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>21173.68</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>52</v>
       </c>
@@ -5812,7 +5821,7 @@
         <v>21448.53</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>52</v>
       </c>
@@ -5838,7 +5847,7 @@
         <v>21780.3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>52</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>21352.44</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>52</v>
       </c>
@@ -5890,7 +5899,7 @@
         <v>21413.439999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>52</v>
       </c>
@@ -5916,7 +5925,7 @@
         <v>21246.86</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>52</v>
       </c>
@@ -5942,7 +5951,7 @@
         <v>21430.27</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>52</v>
       </c>
@@ -5968,7 +5977,7 @@
         <v>21005.43</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>52</v>
       </c>
@@ -5994,7 +6003,7 @@
         <v>21799.49</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>52</v>
       </c>
@@ -6020,7 +6029,7 @@
         <v>21799.61</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>54</v>
       </c>
@@ -6046,7 +6055,7 @@
         <v>22434.82</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>54</v>
       </c>
@@ -6072,7 +6081,7 @@
         <v>21690.3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>54</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>22562.59</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>54</v>
       </c>
@@ -6124,7 +6133,7 @@
         <v>22471.96</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>54</v>
       </c>
@@ -6150,7 +6159,7 @@
         <v>22190.66</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>54</v>
       </c>
@@ -6176,7 +6185,7 @@
         <v>21903.65</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>54</v>
       </c>
@@ -6202,7 +6211,7 @@
         <v>22356.87</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>54</v>
       </c>
@@ -6228,7 +6237,7 @@
         <v>22436.79</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>54</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>22220.51</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>54</v>
       </c>
@@ -6280,7 +6289,7 @@
         <v>22571.67</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>54</v>
       </c>
@@ -6306,7 +6315,7 @@
         <v>21835.95</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>54</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>21600.26</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>56</v>
       </c>
@@ -6358,7 +6367,7 @@
         <v>8409.56</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>56</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>8393.23</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>56</v>
       </c>
@@ -6410,7 +6419,7 @@
         <v>8187.06</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>56</v>
       </c>
@@ -6436,7 +6445,7 @@
         <v>8478.67</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>56</v>
       </c>
@@ -6462,7 +6471,7 @@
         <v>8401.61</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>56</v>
       </c>
@@ -6488,7 +6497,7 @@
         <v>8407.49</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>56</v>
       </c>
@@ -6514,7 +6523,7 @@
         <v>8237.43</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>56</v>
       </c>
@@ -6540,7 +6549,7 @@
         <v>8276.0400000000009</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>56</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>8263.24</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>56</v>
       </c>
@@ -6592,7 +6601,7 @@
         <v>8401.57</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>56</v>
       </c>
@@ -6618,7 +6627,7 @@
         <v>8183.09</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>56</v>
       </c>
@@ -6644,7 +6653,7 @@
         <v>8261.14</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>58</v>
       </c>
@@ -6670,7 +6679,7 @@
         <v>15068.05</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>58</v>
       </c>
@@ -6696,7 +6705,7 @@
         <v>15487.58</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>58</v>
       </c>
@@ -6722,7 +6731,7 @@
         <v>15547.75</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>58</v>
       </c>
@@ -6748,7 +6757,7 @@
         <v>15518.09</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>58</v>
       </c>
@@ -6774,7 +6783,7 @@
         <v>15080.04</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>58</v>
       </c>
@@ -6800,7 +6809,7 @@
         <v>15443.62</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>58</v>
       </c>
@@ -6826,7 +6835,7 @@
         <v>15343.99</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>58</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>15157.06</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>58</v>
       </c>
@@ -6878,7 +6887,7 @@
         <v>15610.92</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>58</v>
       </c>
@@ -6904,7 +6913,7 @@
         <v>15169.07</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>58</v>
       </c>
@@ -6930,7 +6939,7 @@
         <v>15188.96</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>58</v>
       </c>
@@ -6956,7 +6965,7 @@
         <v>15143.62</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>60</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>36104.58</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>60</v>
       </c>
@@ -7008,7 +7017,7 @@
         <v>37086.089999999997</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>60</v>
       </c>
@@ -7034,7 +7043,7 @@
         <v>36841.379999999997</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>60</v>
       </c>
@@ -7060,7 +7069,7 @@
         <v>36110.410000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>60</v>
       </c>
@@ -7086,7 +7095,7 @@
         <v>35305.089999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>60</v>
       </c>
@@ -7112,7 +7121,7 @@
         <v>35468.58</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>60</v>
       </c>
@@ -7138,7 +7147,7 @@
         <v>35320.32</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>60</v>
       </c>
@@ -7164,7 +7173,7 @@
         <v>35522.19</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>60</v>
       </c>
@@ -7190,7 +7199,7 @@
         <v>36657.839999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>60</v>
       </c>
@@ -7216,7 +7225,7 @@
         <v>36437.199999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>60</v>
       </c>
@@ -7242,7 +7251,7 @@
         <v>37162.879999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>60</v>
       </c>
@@ -7283,9 +7292,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -7294,7 +7305,7 @@
     <col min="5" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
@@ -7304,12 +7315,12 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -7323,7 +7334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>0.01</v>
       </c>
@@ -7337,7 +7348,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>844.6</v>
       </c>
@@ -7351,7 +7362,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>7168.52</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>0.10879999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>12598.03</v>
       </c>
@@ -7379,7 +7390,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>14644.65</v>
       </c>
@@ -7393,7 +7404,7 @@
         <v>0.1792</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>17533.650000000001</v>
       </c>
@@ -7407,7 +7418,7 @@
         <v>0.21360000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>35362.839999999997</v>
       </c>
@@ -7421,7 +7432,7 @@
         <v>0.23519999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>55736.69</v>
       </c>
@@ -7435,7 +7446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>106410.51</v>
       </c>
@@ -7449,7 +7460,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>141880.67000000001</v>
       </c>
@@ -7463,7 +7474,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>425642</v>
       </c>
@@ -7492,18 +7503,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>68</v>
       </c>
@@ -7512,12 +7523,12 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>70</v>
       </c>
@@ -7525,7 +7536,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -7537,7 +7548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
@@ -7549,55 +7560,55 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="12" t="e">
-        <f>VLOOKUP(B4,Tarifa_ISR_Mensual,4,TRUE)</f>
-        <v>#NAME?</v>
+      <c r="B7" s="12">
+        <f>VLOOKUP(B4,Tarifa_ISR_Mensual[],4,TRUE)</f>
+        <v>0.21360000000000001</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="11" t="e">
+      <c r="B8" s="11">
         <f>B6*B7</f>
-        <v>#NAME?</v>
+        <v>1594.8123599999997</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="11" t="e">
-        <f>VLOOKUP(B4,Tarifa_ISR_Mensual,3,TRUE)</f>
-        <v>#NAME?</v>
+      <c r="B9" s="11">
+        <f>VLOOKUP(B4,Tarifa_ISR_Mensual[],3,TRUE)</f>
+        <v>1856.84</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="13" t="e">
+      <c r="B10" s="13">
         <f>B8+B9</f>
-        <v>#NAME?</v>
+        <v>3451.6523599999996</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>83</v>
       </c>
@@ -7609,7 +7620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>85</v>
       </c>
@@ -7620,13 +7631,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="13" t="e">
+      <c r="B14" s="13">
         <f>B4-B10-B12+B13</f>
-        <v>#NAME?</v>
+        <v>20854.59764</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>88</v>
@@ -7651,29 +7662,29 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -7688,56 +7699,56 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="31">
+      <c r="B4" s="22">
         <f>SUBTOTAL(109,Nomina_Empleados[Sueldo])</f>
         <v>5801080.1000000043</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="24">
+      <c r="E4" s="31">
         <f>SUBTOTAL(109,Nomina_Empleados[ISR])+SUBTOTAL(109,Nomina_Empleados[IMSS])</f>
         <v>972540.55999999971</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="22">
+      <c r="H4" s="35">
         <f>SUBTOTAL(109,Nomina_Empleados[ISR])</f>
         <v>811560.5699999996</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -7752,7 +7763,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -7767,8 +7778,8 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="17"/>
@@ -7784,8 +7795,8 @@
       <c r="L7" s="17"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -7799,8 +7810,8 @@
       <c r="L8" s="17"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="17"/>
@@ -7816,8 +7827,8 @@
       <c r="L9" s="17"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="17"/>
@@ -7833,8 +7844,8 @@
       <c r="L10" s="17"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="17"/>
@@ -7850,8 +7861,8 @@
       <c r="L11" s="17"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="17"/>
@@ -7867,8 +7878,8 @@
       <c r="L12" s="17"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7882,8 +7893,8 @@
       <c r="L13" s="17"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="17"/>
@@ -7899,8 +7910,8 @@
       <c r="L14" s="17"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="17"/>
@@ -7916,8 +7927,8 @@
       <c r="L15" s="17"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="17"/>
@@ -7933,8 +7944,8 @@
       <c r="L16" s="17"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="17"/>
@@ -7950,8 +7961,8 @@
       <c r="L17" s="17"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7965,8 +7976,8 @@
       <c r="L18" s="17"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="17"/>
@@ -7982,8 +7993,8 @@
       <c r="L19" s="17"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="17"/>
@@ -7999,8 +8010,8 @@
       <c r="L20" s="17"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="17"/>
@@ -8016,8 +8027,8 @@
       <c r="L21" s="17"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="17"/>
@@ -8033,8 +8044,8 @@
       <c r="L22" s="17"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -8048,8 +8059,8 @@
       <c r="L23" s="17"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="17"/>
@@ -8065,8 +8076,8 @@
       <c r="L24" s="17"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="17"/>
@@ -8082,8 +8093,8 @@
       <c r="L25" s="17"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="17"/>
@@ -8099,8 +8110,8 @@
       <c r="L26" s="17"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -8114,8 +8125,8 @@
       <c r="L27" s="17"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="17"/>
@@ -8131,8 +8142,8 @@
       <c r="L28" s="17"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B29" s="17"/>
@@ -8148,8 +8159,8 @@
       <c r="L29" s="17"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B30" s="17"/>
@@ -8164,8 +8175,8 @@
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
         <v>114</v>
       </c>
       <c r="B31" s="17"/>
@@ -8182,11 +8193,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="H3:I3"/>
@@ -8203,19 +8221,12 @@
     <mergeCell ref="A21:L21"/>
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8225,15 +8236,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>115</v>
       </c>
@@ -8245,7 +8258,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -8259,7 +8272,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -8273,7 +8286,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -8287,7 +8300,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -8301,7 +8314,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -8315,7 +8328,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -8329,7 +8342,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -8343,7 +8356,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -8357,7 +8370,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -8371,7 +8384,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -8387,6 +8400,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B3:H3"/>
@@ -8395,9 +8411,6 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
